--- a/TARJETA DE LIQUIDACION chacabamba/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETA-2016.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="MODELO" sheetId="1" r:id="rId1"/>
     <sheet name="2016" sheetId="15" r:id="rId2"/>
     <sheet name="G.SUPERVISION" sheetId="22" r:id="rId3"/>
     <sheet name="2.6.3.1.1.(1.1.3G.G" sheetId="23" r:id="rId4"/>
@@ -3840,19 +3840,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3864,11 +3867,14 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3879,22 +3885,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3924,11 +3924,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,12 +3951,6 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3952,34 +3958,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4005,6 +3999,18 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4021,12 +4027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4337,7 +4337,7 @@
   <sheetPr codeName="Hoja1" filterMode="1"/>
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -4356,42 +4356,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4411,23 +4411,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4550,38 +4550,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="221" t="s">
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="221" t="s">
+      <c r="F12" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="223" t="s">
+      <c r="G12" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="225" t="s">
+      <c r="H12" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="223" t="s">
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4591,9 +4591,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="222"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="219"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="215"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="219"/>
+      <c r="O13" s="215"/>
     </row>
     <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5186,14 +5186,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="217"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="218"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5226,42 +5226,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
+      <c r="O35" s="219"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="211" t="s">
+      <c r="A36" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="211"/>
-      <c r="M36" s="211"/>
-      <c r="N36" s="211"/>
-      <c r="O36" s="211"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="220"/>
+      <c r="K36" s="220"/>
+      <c r="L36" s="220"/>
+      <c r="M36" s="220"/>
+      <c r="N36" s="220"/>
+      <c r="O36" s="220"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5384,38 +5384,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="218" t="s">
+      <c r="A43" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="221" t="s">
+      <c r="C43" s="222"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="221" t="s">
+      <c r="F43" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="223" t="s">
+      <c r="G43" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="225" t="s">
+      <c r="H43" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="226"/>
-      <c r="J43" s="226"/>
-      <c r="K43" s="226"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="223" t="s">
+      <c r="I43" s="212"/>
+      <c r="J43" s="212"/>
+      <c r="K43" s="212"/>
+      <c r="L43" s="212"/>
+      <c r="M43" s="212"/>
+      <c r="N43" s="213"/>
+      <c r="O43" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="219"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5425,9 +5425,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="222"/>
-      <c r="F44" s="224"/>
-      <c r="G44" s="219"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="225"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5449,17 +5449,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="219"/>
+      <c r="O44" s="215"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="213"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="214"/>
+      <c r="B45" s="227"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="228"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5914,14 +5914,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="215" t="s">
+      <c r="A66" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="217"/>
+      <c r="B66" s="217"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="218"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5954,42 +5954,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="210" t="s">
+      <c r="A69" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="210"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="210"/>
-      <c r="E69" s="210"/>
-      <c r="F69" s="210"/>
-      <c r="G69" s="210"/>
-      <c r="H69" s="210"/>
-      <c r="I69" s="210"/>
-      <c r="J69" s="210"/>
-      <c r="K69" s="210"/>
-      <c r="L69" s="210"/>
-      <c r="M69" s="210"/>
-      <c r="N69" s="210"/>
-      <c r="O69" s="210"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="219"/>
+      <c r="D69" s="219"/>
+      <c r="E69" s="219"/>
+      <c r="F69" s="219"/>
+      <c r="G69" s="219"/>
+      <c r="H69" s="219"/>
+      <c r="I69" s="219"/>
+      <c r="J69" s="219"/>
+      <c r="K69" s="219"/>
+      <c r="L69" s="219"/>
+      <c r="M69" s="219"/>
+      <c r="N69" s="219"/>
+      <c r="O69" s="219"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="211" t="s">
+      <c r="A70" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="211"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="211"/>
-      <c r="K70" s="211"/>
-      <c r="L70" s="211"/>
-      <c r="M70" s="211"/>
-      <c r="N70" s="211"/>
-      <c r="O70" s="211"/>
+      <c r="B70" s="220"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
+      <c r="E70" s="220"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="220"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="220"/>
+      <c r="J70" s="220"/>
+      <c r="K70" s="220"/>
+      <c r="L70" s="220"/>
+      <c r="M70" s="220"/>
+      <c r="N70" s="220"/>
+      <c r="O70" s="220"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6112,38 +6112,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="218" t="s">
+      <c r="A77" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="220" t="s">
+      <c r="B77" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="220"/>
-      <c r="D77" s="220"/>
-      <c r="E77" s="221" t="s">
+      <c r="C77" s="222"/>
+      <c r="D77" s="222"/>
+      <c r="E77" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="221" t="s">
+      <c r="F77" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="223" t="s">
+      <c r="G77" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="225" t="s">
+      <c r="H77" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="226"/>
-      <c r="J77" s="226"/>
-      <c r="K77" s="226"/>
-      <c r="L77" s="226"/>
-      <c r="M77" s="226"/>
-      <c r="N77" s="227"/>
-      <c r="O77" s="223" t="s">
+      <c r="I77" s="212"/>
+      <c r="J77" s="212"/>
+      <c r="K77" s="212"/>
+      <c r="L77" s="212"/>
+      <c r="M77" s="212"/>
+      <c r="N77" s="213"/>
+      <c r="O77" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="219"/>
+      <c r="A78" s="215"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6153,9 +6153,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="222"/>
-      <c r="F78" s="224"/>
-      <c r="G78" s="219"/>
+      <c r="E78" s="224"/>
+      <c r="F78" s="225"/>
+      <c r="G78" s="215"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6177,17 +6177,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="219"/>
+      <c r="O78" s="215"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="212" t="s">
+      <c r="A79" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="213"/>
-      <c r="C79" s="213"/>
-      <c r="D79" s="213"/>
-      <c r="E79" s="213"/>
-      <c r="F79" s="214"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
+      <c r="F79" s="228"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6620,14 +6620,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="215" t="s">
+      <c r="A99" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="216"/>
-      <c r="C99" s="216"/>
-      <c r="D99" s="216"/>
-      <c r="E99" s="216"/>
-      <c r="F99" s="217"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="217"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="217"/>
+      <c r="F99" s="218"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6713,42 +6713,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="210" t="s">
+      <c r="A105" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="210"/>
-      <c r="C105" s="210"/>
-      <c r="D105" s="210"/>
-      <c r="E105" s="210"/>
-      <c r="F105" s="210"/>
-      <c r="G105" s="210"/>
-      <c r="H105" s="210"/>
-      <c r="I105" s="210"/>
-      <c r="J105" s="210"/>
-      <c r="K105" s="210"/>
-      <c r="L105" s="210"/>
-      <c r="M105" s="210"/>
-      <c r="N105" s="210"/>
-      <c r="O105" s="210"/>
+      <c r="B105" s="219"/>
+      <c r="C105" s="219"/>
+      <c r="D105" s="219"/>
+      <c r="E105" s="219"/>
+      <c r="F105" s="219"/>
+      <c r="G105" s="219"/>
+      <c r="H105" s="219"/>
+      <c r="I105" s="219"/>
+      <c r="J105" s="219"/>
+      <c r="K105" s="219"/>
+      <c r="L105" s="219"/>
+      <c r="M105" s="219"/>
+      <c r="N105" s="219"/>
+      <c r="O105" s="219"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="211" t="s">
+      <c r="A106" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="211"/>
-      <c r="C106" s="211"/>
-      <c r="D106" s="211"/>
-      <c r="E106" s="211"/>
-      <c r="F106" s="211"/>
-      <c r="G106" s="211"/>
-      <c r="H106" s="211"/>
-      <c r="I106" s="211"/>
-      <c r="J106" s="211"/>
-      <c r="K106" s="211"/>
-      <c r="L106" s="211"/>
-      <c r="M106" s="211"/>
-      <c r="N106" s="211"/>
-      <c r="O106" s="211"/>
+      <c r="B106" s="220"/>
+      <c r="C106" s="220"/>
+      <c r="D106" s="220"/>
+      <c r="E106" s="220"/>
+      <c r="F106" s="220"/>
+      <c r="G106" s="220"/>
+      <c r="H106" s="220"/>
+      <c r="I106" s="220"/>
+      <c r="J106" s="220"/>
+      <c r="K106" s="220"/>
+      <c r="L106" s="220"/>
+      <c r="M106" s="220"/>
+      <c r="N106" s="220"/>
+      <c r="O106" s="220"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6768,23 +6768,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="228" t="s">
+      <c r="A108" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="228"/>
-      <c r="C108" s="228"/>
-      <c r="D108" s="228"/>
-      <c r="E108" s="228"/>
-      <c r="F108" s="228"/>
-      <c r="G108" s="228"/>
-      <c r="H108" s="228"/>
-      <c r="I108" s="228"/>
-      <c r="J108" s="228"/>
-      <c r="K108" s="228"/>
-      <c r="L108" s="228"/>
-      <c r="M108" s="228"/>
-      <c r="N108" s="228"/>
-      <c r="O108" s="228"/>
+      <c r="B108" s="210"/>
+      <c r="C108" s="210"/>
+      <c r="D108" s="210"/>
+      <c r="E108" s="210"/>
+      <c r="F108" s="210"/>
+      <c r="G108" s="210"/>
+      <c r="H108" s="210"/>
+      <c r="I108" s="210"/>
+      <c r="J108" s="210"/>
+      <c r="K108" s="210"/>
+      <c r="L108" s="210"/>
+      <c r="M108" s="210"/>
+      <c r="N108" s="210"/>
+      <c r="O108" s="210"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6907,38 +6907,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="218" t="s">
+      <c r="A115" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="220" t="s">
+      <c r="B115" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="220"/>
-      <c r="D115" s="220"/>
-      <c r="E115" s="221" t="s">
+      <c r="C115" s="222"/>
+      <c r="D115" s="222"/>
+      <c r="E115" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="221" t="s">
+      <c r="F115" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="223" t="s">
+      <c r="G115" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="225" t="s">
+      <c r="H115" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="226"/>
-      <c r="J115" s="226"/>
-      <c r="K115" s="226"/>
-      <c r="L115" s="226"/>
-      <c r="M115" s="226"/>
-      <c r="N115" s="227"/>
-      <c r="O115" s="223" t="s">
+      <c r="I115" s="212"/>
+      <c r="J115" s="212"/>
+      <c r="K115" s="212"/>
+      <c r="L115" s="212"/>
+      <c r="M115" s="212"/>
+      <c r="N115" s="213"/>
+      <c r="O115" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="219"/>
+      <c r="A116" s="215"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6948,9 +6948,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="222"/>
-      <c r="F116" s="224"/>
-      <c r="G116" s="219"/>
+      <c r="E116" s="224"/>
+      <c r="F116" s="225"/>
+      <c r="G116" s="215"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="219"/>
+      <c r="O116" s="215"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7101,14 +7101,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="215" t="s">
+      <c r="A122" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="216"/>
-      <c r="C122" s="216"/>
-      <c r="D122" s="216"/>
-      <c r="E122" s="216"/>
-      <c r="F122" s="217"/>
+      <c r="B122" s="217"/>
+      <c r="C122" s="217"/>
+      <c r="D122" s="217"/>
+      <c r="E122" s="217"/>
+      <c r="F122" s="218"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7151,6 +7151,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -7167,34 +7195,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7231,21 +7231,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7355,56 +7355,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="249" t="s">
+      <c r="B9" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="251" t="s">
+      <c r="C9" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="253" t="s">
+      <c r="D9" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="251" t="s">
+      <c r="E9" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="251" t="s">
+      <c r="F9" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="251" t="s">
+      <c r="G9" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="251" t="s">
+      <c r="H9" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="255" t="s">
+      <c r="I9" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="251" t="s">
+      <c r="J9" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="251" t="s">
+      <c r="K9" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="251" t="s">
+      <c r="L9" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="257" t="s">
+      <c r="M9" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="258"/>
+      <c r="N9" s="256"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="250"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7833,44 +7833,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="259" t="s">
+      <c r="B31" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="259"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="262"/>
-      <c r="K31" s="263"/>
-      <c r="L31" s="263"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="264"/>
+      <c r="J31" s="260"/>
+      <c r="K31" s="261"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="261"/>
+      <c r="N31" s="262"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="228" t="s">
+      <c r="B35" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="228"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="228"/>
-      <c r="L35" s="228"/>
-      <c r="M35" s="228"/>
-      <c r="N35" s="228"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7980,56 +7980,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="249" t="s">
+      <c r="B42" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="251" t="s">
+      <c r="E42" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="251" t="s">
+      <c r="F42" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="251" t="s">
+      <c r="G42" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="251" t="s">
+      <c r="H42" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="255" t="s">
+      <c r="I42" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="251" t="s">
+      <c r="J42" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="251" t="s">
+      <c r="K42" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="251" t="s">
+      <c r="L42" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="257" t="s">
+      <c r="M42" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="258"/>
+      <c r="N42" s="256"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="250"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
-      <c r="E43" s="252"/>
-      <c r="F43" s="252"/>
-      <c r="G43" s="252"/>
-      <c r="H43" s="252"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="252"/>
-      <c r="K43" s="252"/>
-      <c r="L43" s="252"/>
+      <c r="B43" s="264"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="266"/>
+      <c r="E43" s="254"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="254"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="252"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="254"/>
+      <c r="L43" s="254"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -8038,24 +8038,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
-      <c r="H44" s="267"/>
+      <c r="C44" s="268"/>
+      <c r="D44" s="268"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="268"/>
+      <c r="G44" s="268"/>
+      <c r="H44" s="269"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="268"/>
-      <c r="K44" s="269"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="269"/>
-      <c r="N44" s="270"/>
+      <c r="J44" s="270"/>
+      <c r="K44" s="271"/>
+      <c r="L44" s="271"/>
+      <c r="M44" s="271"/>
+      <c r="N44" s="272"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8419,44 +8419,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="259" t="s">
+      <c r="B63" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="260"/>
-      <c r="D63" s="260"/>
-      <c r="E63" s="260"/>
-      <c r="F63" s="260"/>
-      <c r="G63" s="260"/>
-      <c r="H63" s="261"/>
+      <c r="C63" s="258"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="258"/>
+      <c r="G63" s="258"/>
+      <c r="H63" s="259"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="262"/>
-      <c r="K63" s="263"/>
-      <c r="L63" s="263"/>
-      <c r="M63" s="263"/>
-      <c r="N63" s="264"/>
+      <c r="J63" s="260"/>
+      <c r="K63" s="261"/>
+      <c r="L63" s="261"/>
+      <c r="M63" s="261"/>
+      <c r="N63" s="262"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="228" t="s">
+      <c r="B67" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="228"/>
-      <c r="F67" s="228"/>
-      <c r="G67" s="228"/>
-      <c r="H67" s="228"/>
-      <c r="I67" s="228"/>
-      <c r="J67" s="228"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="228"/>
-      <c r="M67" s="228"/>
-      <c r="N67" s="228"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="210"/>
+      <c r="E67" s="210"/>
+      <c r="F67" s="210"/>
+      <c r="G67" s="210"/>
+      <c r="H67" s="210"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="210"/>
+      <c r="K67" s="210"/>
+      <c r="L67" s="210"/>
+      <c r="M67" s="210"/>
+      <c r="N67" s="210"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8566,56 +8566,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="249" t="s">
+      <c r="B74" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="251" t="s">
+      <c r="C74" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="253" t="s">
+      <c r="D74" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="251" t="s">
+      <c r="E74" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="251" t="s">
+      <c r="F74" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="251" t="s">
+      <c r="G74" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="251" t="s">
+      <c r="H74" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="255" t="s">
+      <c r="I74" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="251" t="s">
+      <c r="J74" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="251" t="s">
+      <c r="K74" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="251" t="s">
+      <c r="L74" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="257" t="s">
+      <c r="M74" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="258"/>
+      <c r="N74" s="256"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="250"/>
-      <c r="C75" s="252"/>
-      <c r="D75" s="254"/>
-      <c r="E75" s="252"/>
-      <c r="F75" s="252"/>
-      <c r="G75" s="252"/>
-      <c r="H75" s="252"/>
-      <c r="I75" s="256"/>
-      <c r="J75" s="252"/>
-      <c r="K75" s="252"/>
-      <c r="L75" s="252"/>
+      <c r="B75" s="264"/>
+      <c r="C75" s="254"/>
+      <c r="D75" s="266"/>
+      <c r="E75" s="254"/>
+      <c r="F75" s="254"/>
+      <c r="G75" s="254"/>
+      <c r="H75" s="254"/>
+      <c r="I75" s="252"/>
+      <c r="J75" s="254"/>
+      <c r="K75" s="254"/>
+      <c r="L75" s="254"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8624,24 +8624,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="265" t="s">
+      <c r="B76" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="266"/>
-      <c r="D76" s="266"/>
-      <c r="E76" s="266"/>
-      <c r="F76" s="266"/>
-      <c r="G76" s="266"/>
-      <c r="H76" s="267"/>
+      <c r="C76" s="268"/>
+      <c r="D76" s="268"/>
+      <c r="E76" s="268"/>
+      <c r="F76" s="268"/>
+      <c r="G76" s="268"/>
+      <c r="H76" s="269"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="268"/>
-      <c r="K76" s="269"/>
-      <c r="L76" s="269"/>
-      <c r="M76" s="269"/>
-      <c r="N76" s="270"/>
+      <c r="J76" s="270"/>
+      <c r="K76" s="271"/>
+      <c r="L76" s="271"/>
+      <c r="M76" s="271"/>
+      <c r="N76" s="272"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -9084,44 +9084,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="259" t="s">
+      <c r="B97" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="260"/>
-      <c r="D97" s="260"/>
-      <c r="E97" s="260"/>
-      <c r="F97" s="260"/>
-      <c r="G97" s="260"/>
-      <c r="H97" s="261"/>
+      <c r="C97" s="258"/>
+      <c r="D97" s="258"/>
+      <c r="E97" s="258"/>
+      <c r="F97" s="258"/>
+      <c r="G97" s="258"/>
+      <c r="H97" s="259"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="262"/>
-      <c r="K97" s="263"/>
-      <c r="L97" s="263"/>
-      <c r="M97" s="263"/>
-      <c r="N97" s="264"/>
+      <c r="J97" s="260"/>
+      <c r="K97" s="261"/>
+      <c r="L97" s="261"/>
+      <c r="M97" s="261"/>
+      <c r="N97" s="262"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="228" t="s">
+      <c r="B101" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="228"/>
-      <c r="D101" s="228"/>
-      <c r="E101" s="228"/>
-      <c r="F101" s="228"/>
-      <c r="G101" s="228"/>
-      <c r="H101" s="228"/>
-      <c r="I101" s="228"/>
-      <c r="J101" s="228"/>
-      <c r="K101" s="228"/>
-      <c r="L101" s="228"/>
-      <c r="M101" s="228"/>
-      <c r="N101" s="228"/>
+      <c r="C101" s="210"/>
+      <c r="D101" s="210"/>
+      <c r="E101" s="210"/>
+      <c r="F101" s="210"/>
+      <c r="G101" s="210"/>
+      <c r="H101" s="210"/>
+      <c r="I101" s="210"/>
+      <c r="J101" s="210"/>
+      <c r="K101" s="210"/>
+      <c r="L101" s="210"/>
+      <c r="M101" s="210"/>
+      <c r="N101" s="210"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9231,56 +9231,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="249" t="s">
+      <c r="B108" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="251" t="s">
+      <c r="C108" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="253" t="s">
+      <c r="D108" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="251" t="s">
+      <c r="E108" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="251" t="s">
+      <c r="F108" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="251" t="s">
+      <c r="G108" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="251" t="s">
+      <c r="H108" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="255" t="s">
+      <c r="I108" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="251" t="s">
+      <c r="J108" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="251" t="s">
+      <c r="K108" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="251" t="s">
+      <c r="L108" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="257" t="s">
+      <c r="M108" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="258"/>
+      <c r="N108" s="256"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="250"/>
-      <c r="C109" s="252"/>
-      <c r="D109" s="254"/>
-      <c r="E109" s="252"/>
-      <c r="F109" s="252"/>
-      <c r="G109" s="252"/>
-      <c r="H109" s="252"/>
-      <c r="I109" s="256"/>
-      <c r="J109" s="252"/>
-      <c r="K109" s="252"/>
-      <c r="L109" s="252"/>
+      <c r="B109" s="264"/>
+      <c r="C109" s="254"/>
+      <c r="D109" s="266"/>
+      <c r="E109" s="254"/>
+      <c r="F109" s="254"/>
+      <c r="G109" s="254"/>
+      <c r="H109" s="254"/>
+      <c r="I109" s="252"/>
+      <c r="J109" s="254"/>
+      <c r="K109" s="254"/>
+      <c r="L109" s="254"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9289,24 +9289,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="265" t="s">
+      <c r="B110" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="266"/>
-      <c r="D110" s="266"/>
-      <c r="E110" s="266"/>
-      <c r="F110" s="266"/>
-      <c r="G110" s="266"/>
-      <c r="H110" s="267"/>
+      <c r="C110" s="268"/>
+      <c r="D110" s="268"/>
+      <c r="E110" s="268"/>
+      <c r="F110" s="268"/>
+      <c r="G110" s="268"/>
+      <c r="H110" s="269"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="268"/>
-      <c r="K110" s="269"/>
-      <c r="L110" s="269"/>
-      <c r="M110" s="269"/>
-      <c r="N110" s="270"/>
+      <c r="J110" s="270"/>
+      <c r="K110" s="271"/>
+      <c r="L110" s="271"/>
+      <c r="M110" s="271"/>
+      <c r="N110" s="272"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9676,44 +9676,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="259" t="s">
+      <c r="B130" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="260"/>
-      <c r="D130" s="260"/>
-      <c r="E130" s="260"/>
-      <c r="F130" s="260"/>
-      <c r="G130" s="260"/>
-      <c r="H130" s="261"/>
+      <c r="C130" s="258"/>
+      <c r="D130" s="258"/>
+      <c r="E130" s="258"/>
+      <c r="F130" s="258"/>
+      <c r="G130" s="258"/>
+      <c r="H130" s="259"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="262"/>
-      <c r="K130" s="263"/>
-      <c r="L130" s="263"/>
-      <c r="M130" s="263"/>
-      <c r="N130" s="264"/>
+      <c r="J130" s="260"/>
+      <c r="K130" s="261"/>
+      <c r="L130" s="261"/>
+      <c r="M130" s="261"/>
+      <c r="N130" s="262"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="228" t="s">
+      <c r="B134" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="228"/>
-      <c r="D134" s="228"/>
-      <c r="E134" s="228"/>
-      <c r="F134" s="228"/>
-      <c r="G134" s="228"/>
-      <c r="H134" s="228"/>
-      <c r="I134" s="228"/>
-      <c r="J134" s="228"/>
-      <c r="K134" s="228"/>
-      <c r="L134" s="228"/>
-      <c r="M134" s="228"/>
-      <c r="N134" s="228"/>
+      <c r="C134" s="210"/>
+      <c r="D134" s="210"/>
+      <c r="E134" s="210"/>
+      <c r="F134" s="210"/>
+      <c r="G134" s="210"/>
+      <c r="H134" s="210"/>
+      <c r="I134" s="210"/>
+      <c r="J134" s="210"/>
+      <c r="K134" s="210"/>
+      <c r="L134" s="210"/>
+      <c r="M134" s="210"/>
+      <c r="N134" s="210"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9823,56 +9823,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="249" t="s">
+      <c r="B141" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="251" t="s">
+      <c r="C141" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="253" t="s">
+      <c r="D141" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="251" t="s">
+      <c r="E141" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="251" t="s">
+      <c r="F141" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="251" t="s">
+      <c r="G141" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="251" t="s">
+      <c r="H141" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="255" t="s">
+      <c r="I141" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="251" t="s">
+      <c r="J141" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="251" t="s">
+      <c r="K141" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="251" t="s">
+      <c r="L141" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="257" t="s">
+      <c r="M141" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="258"/>
+      <c r="N141" s="256"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="250"/>
-      <c r="C142" s="252"/>
-      <c r="D142" s="254"/>
-      <c r="E142" s="252"/>
-      <c r="F142" s="252"/>
-      <c r="G142" s="252"/>
-      <c r="H142" s="252"/>
-      <c r="I142" s="256"/>
-      <c r="J142" s="252"/>
-      <c r="K142" s="252"/>
-      <c r="L142" s="252"/>
+      <c r="B142" s="264"/>
+      <c r="C142" s="254"/>
+      <c r="D142" s="266"/>
+      <c r="E142" s="254"/>
+      <c r="F142" s="254"/>
+      <c r="G142" s="254"/>
+      <c r="H142" s="254"/>
+      <c r="I142" s="252"/>
+      <c r="J142" s="254"/>
+      <c r="K142" s="254"/>
+      <c r="L142" s="254"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9881,24 +9881,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="265" t="s">
+      <c r="B143" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="266"/>
-      <c r="D143" s="266"/>
-      <c r="E143" s="266"/>
-      <c r="F143" s="266"/>
-      <c r="G143" s="266"/>
-      <c r="H143" s="267"/>
+      <c r="C143" s="268"/>
+      <c r="D143" s="268"/>
+      <c r="E143" s="268"/>
+      <c r="F143" s="268"/>
+      <c r="G143" s="268"/>
+      <c r="H143" s="269"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="268"/>
-      <c r="K143" s="269"/>
-      <c r="L143" s="269"/>
-      <c r="M143" s="269"/>
-      <c r="N143" s="270"/>
+      <c r="J143" s="270"/>
+      <c r="K143" s="271"/>
+      <c r="L143" s="271"/>
+      <c r="M143" s="271"/>
+      <c r="N143" s="272"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10224,44 +10224,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="259" t="s">
+      <c r="B161" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="260"/>
-      <c r="D161" s="260"/>
-      <c r="E161" s="260"/>
-      <c r="F161" s="260"/>
-      <c r="G161" s="260"/>
-      <c r="H161" s="261"/>
+      <c r="C161" s="258"/>
+      <c r="D161" s="258"/>
+      <c r="E161" s="258"/>
+      <c r="F161" s="258"/>
+      <c r="G161" s="258"/>
+      <c r="H161" s="259"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="262"/>
-      <c r="K161" s="263"/>
-      <c r="L161" s="263"/>
-      <c r="M161" s="263"/>
-      <c r="N161" s="264"/>
+      <c r="J161" s="260"/>
+      <c r="K161" s="261"/>
+      <c r="L161" s="261"/>
+      <c r="M161" s="261"/>
+      <c r="N161" s="262"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="228" t="s">
+      <c r="B165" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="228"/>
-      <c r="D165" s="228"/>
-      <c r="E165" s="228"/>
-      <c r="F165" s="228"/>
-      <c r="G165" s="228"/>
-      <c r="H165" s="228"/>
-      <c r="I165" s="228"/>
-      <c r="J165" s="228"/>
-      <c r="K165" s="228"/>
-      <c r="L165" s="228"/>
-      <c r="M165" s="228"/>
-      <c r="N165" s="228"/>
+      <c r="C165" s="210"/>
+      <c r="D165" s="210"/>
+      <c r="E165" s="210"/>
+      <c r="F165" s="210"/>
+      <c r="G165" s="210"/>
+      <c r="H165" s="210"/>
+      <c r="I165" s="210"/>
+      <c r="J165" s="210"/>
+      <c r="K165" s="210"/>
+      <c r="L165" s="210"/>
+      <c r="M165" s="210"/>
+      <c r="N165" s="210"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10371,56 +10371,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="249" t="s">
+      <c r="B172" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="251" t="s">
+      <c r="C172" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="253" t="s">
+      <c r="D172" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="251" t="s">
+      <c r="E172" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="251" t="s">
+      <c r="F172" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="251" t="s">
+      <c r="G172" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="251" t="s">
+      <c r="H172" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="255" t="s">
+      <c r="I172" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="251" t="s">
+      <c r="J172" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="251" t="s">
+      <c r="K172" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="251" t="s">
+      <c r="L172" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="257" t="s">
+      <c r="M172" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="258"/>
+      <c r="N172" s="256"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="250"/>
-      <c r="C173" s="252"/>
-      <c r="D173" s="254"/>
-      <c r="E173" s="252"/>
-      <c r="F173" s="252"/>
-      <c r="G173" s="252"/>
-      <c r="H173" s="252"/>
-      <c r="I173" s="256"/>
-      <c r="J173" s="252"/>
-      <c r="K173" s="252"/>
-      <c r="L173" s="252"/>
+      <c r="B173" s="264"/>
+      <c r="C173" s="254"/>
+      <c r="D173" s="266"/>
+      <c r="E173" s="254"/>
+      <c r="F173" s="254"/>
+      <c r="G173" s="254"/>
+      <c r="H173" s="254"/>
+      <c r="I173" s="252"/>
+      <c r="J173" s="254"/>
+      <c r="K173" s="254"/>
+      <c r="L173" s="254"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10429,24 +10429,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="265" t="s">
+      <c r="B174" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="266"/>
-      <c r="D174" s="266"/>
-      <c r="E174" s="266"/>
-      <c r="F174" s="266"/>
-      <c r="G174" s="266"/>
-      <c r="H174" s="267"/>
+      <c r="C174" s="268"/>
+      <c r="D174" s="268"/>
+      <c r="E174" s="268"/>
+      <c r="F174" s="268"/>
+      <c r="G174" s="268"/>
+      <c r="H174" s="269"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="268"/>
-      <c r="K174" s="269"/>
-      <c r="L174" s="269"/>
-      <c r="M174" s="269"/>
-      <c r="N174" s="270"/>
+      <c r="J174" s="270"/>
+      <c r="K174" s="271"/>
+      <c r="L174" s="271"/>
+      <c r="M174" s="271"/>
+      <c r="N174" s="272"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10512,31 +10512,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="265" t="s">
+      <c r="B178" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="266"/>
-      <c r="D178" s="266"/>
-      <c r="E178" s="266"/>
-      <c r="F178" s="266"/>
-      <c r="G178" s="266"/>
-      <c r="H178" s="267"/>
+      <c r="C178" s="268"/>
+      <c r="D178" s="268"/>
+      <c r="E178" s="268"/>
+      <c r="F178" s="268"/>
+      <c r="G178" s="268"/>
+      <c r="H178" s="269"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="268"/>
-      <c r="K178" s="269"/>
-      <c r="L178" s="269"/>
-      <c r="M178" s="269"/>
-      <c r="N178" s="270"/>
+      <c r="J178" s="270"/>
+      <c r="K178" s="271"/>
+      <c r="L178" s="271"/>
+      <c r="M178" s="271"/>
+      <c r="N178" s="272"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="271" t="s">
+      <c r="M180" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="271"/>
+      <c r="N180" s="250"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10553,6 +10553,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10570,90 +10654,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -11653,46 +11653,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11714,25 +11714,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="210"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11867,13 +11867,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -11900,7 +11900,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26638,8 +26638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26660,34 +26660,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26703,19 +26703,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26750,48 +26750,48 @@
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="243"/>
+      <c r="B8" s="238"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="244" t="s">
+      <c r="D8" s="239" t="s">
         <v>645</v>
       </c>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="244"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
     </row>
     <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="243" t="s">
+      <c r="A9" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="243"/>
+      <c r="B9" s="238"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="239" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="247" t="s">
+      <c r="A10" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="247"/>
+      <c r="B10" s="240"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -26822,32 +26822,32 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="238" t="s">
+      <c r="F12" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="223" t="s">
+      <c r="G12" s="214" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="237"/>
       <c r="I12" s="237"/>
       <c r="J12" s="237"/>
-      <c r="K12" s="223" t="s">
+      <c r="K12" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26857,9 +26857,9 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="219"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="215"/>
       <c r="H13" s="157" t="s">
         <v>206</v>
       </c>
@@ -26869,7 +26869,7 @@
       <c r="J13" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="272"/>
+      <c r="K13" s="243"/>
     </row>
     <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="122">
@@ -27135,14 +27135,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="240" t="s">
+      <c r="A21" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="241"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="242"/>
+      <c r="B21" s="245"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="245"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="246"/>
       <c r="G21" s="171">
         <f>SUM(G15:G20)</f>
         <v>15479.75</v>
@@ -27175,34 +27175,34 @@
       <c r="K22" s="188"/>
     </row>
     <row r="23" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="210" t="s">
+      <c r="A23" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
       <c r="D23" s="232"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="219"/>
     </row>
     <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="211"/>
-      <c r="C24" s="211"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
       <c r="D24" s="233"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="211"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
     </row>
     <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -27218,19 +27218,19 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="228" t="s">
+      <c r="A26" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="228"/>
-      <c r="C26" s="228"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="234"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="228"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
     </row>
     <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -27265,48 +27265,48 @@
       <c r="K28" s="201"/>
     </row>
     <row r="29" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="245" t="s">
+      <c r="A29" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="245"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="244" t="s">
+      <c r="D29" s="239" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="244"/>
-      <c r="K29" s="244"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="239"/>
     </row>
     <row r="30" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="245" t="s">
+      <c r="A30" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="245"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="239" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="244"/>
-      <c r="K30" s="244"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="239"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="246" t="s">
+      <c r="A31" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="246"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="205" t="s">
         <v>7</v>
       </c>
@@ -27337,32 +27337,32 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="220"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="235"/>
-      <c r="E33" s="221" t="s">
+      <c r="E33" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="238" t="s">
+      <c r="F33" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="223" t="s">
+      <c r="G33" s="214" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="237"/>
       <c r="I33" s="237"/>
       <c r="J33" s="237"/>
-      <c r="K33" s="223" t="s">
+      <c r="K33" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="219"/>
+      <c r="A34" s="215"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -27372,9 +27372,9 @@
       <c r="D34" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="224"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="219"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="215"/>
       <c r="H34" s="157" t="s">
         <v>206</v>
       </c>
@@ -27384,17 +27384,17 @@
       <c r="J34" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="219"/>
+      <c r="K34" s="215"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="217"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="218"/>
       <c r="G35" s="189">
         <f>G21</f>
         <v>15479.75</v>
@@ -27694,14 +27694,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="215" t="s">
+      <c r="A44" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="216"/>
-      <c r="C44" s="216"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="216"/>
-      <c r="F44" s="217"/>
+      <c r="B44" s="217"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="218"/>
       <c r="G44" s="189">
         <f>SUM(G35:G43)</f>
         <v>24697.52</v>
@@ -27734,34 +27734,34 @@
       <c r="K45" s="198"/>
     </row>
     <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="210" t="s">
+      <c r="A46" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="210"/>
-      <c r="C46" s="210"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
       <c r="D46" s="232"/>
-      <c r="E46" s="210"/>
-      <c r="F46" s="210"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="210"/>
-      <c r="I46" s="210"/>
-      <c r="J46" s="210"/>
-      <c r="K46" s="210"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="219"/>
+      <c r="G46" s="219"/>
+      <c r="H46" s="219"/>
+      <c r="I46" s="219"/>
+      <c r="J46" s="219"/>
+      <c r="K46" s="219"/>
     </row>
     <row r="47" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="211" t="s">
+      <c r="A47" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="211"/>
-      <c r="C47" s="211"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
       <c r="D47" s="233"/>
-      <c r="E47" s="211"/>
-      <c r="F47" s="211"/>
-      <c r="G47" s="211"/>
-      <c r="H47" s="211"/>
-      <c r="I47" s="211"/>
-      <c r="J47" s="211"/>
-      <c r="K47" s="211"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="220"/>
     </row>
     <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -27777,19 +27777,19 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="228" t="s">
+      <c r="A49" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="228"/>
-      <c r="C49" s="228"/>
+      <c r="B49" s="210"/>
+      <c r="C49" s="210"/>
       <c r="D49" s="234"/>
-      <c r="E49" s="228"/>
-      <c r="F49" s="228"/>
-      <c r="G49" s="228"/>
-      <c r="H49" s="228"/>
-      <c r="I49" s="228"/>
-      <c r="J49" s="228"/>
-      <c r="K49" s="228"/>
+      <c r="E49" s="210"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="210"/>
+      <c r="I49" s="210"/>
+      <c r="J49" s="210"/>
+      <c r="K49" s="210"/>
     </row>
     <row r="50" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -27824,48 +27824,48 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="243" t="s">
+      <c r="A52" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="243"/>
+      <c r="B52" s="238"/>
       <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="244" t="s">
+      <c r="D52" s="239" t="s">
         <v>645</v>
       </c>
-      <c r="E52" s="244"/>
-      <c r="F52" s="244"/>
-      <c r="G52" s="244"/>
-      <c r="H52" s="244"/>
-      <c r="I52" s="244"/>
-      <c r="J52" s="244"/>
-      <c r="K52" s="244"/>
+      <c r="E52" s="239"/>
+      <c r="F52" s="239"/>
+      <c r="G52" s="239"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="239"/>
+      <c r="K52" s="239"/>
     </row>
     <row r="53" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="243" t="s">
+      <c r="A53" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="243"/>
+      <c r="B53" s="238"/>
       <c r="C53" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="244" t="s">
+      <c r="D53" s="239" t="s">
         <v>646</v>
       </c>
-      <c r="E53" s="244"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="244"/>
-      <c r="I53" s="244"/>
-      <c r="J53" s="244"/>
-      <c r="K53" s="244"/>
+      <c r="E53" s="239"/>
+      <c r="F53" s="239"/>
+      <c r="G53" s="239"/>
+      <c r="H53" s="239"/>
+      <c r="I53" s="239"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="239"/>
     </row>
     <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="247" t="s">
+      <c r="A54" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="247"/>
+      <c r="B54" s="240"/>
       <c r="C54" s="181" t="s">
         <v>7</v>
       </c>
@@ -27896,32 +27896,32 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="218" t="s">
+      <c r="A56" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="220" t="s">
+      <c r="B56" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="220"/>
+      <c r="C56" s="222"/>
       <c r="D56" s="235"/>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="238" t="s">
+      <c r="F56" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="223" t="s">
+      <c r="G56" s="214" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="237"/>
       <c r="I56" s="237"/>
       <c r="J56" s="237"/>
-      <c r="K56" s="223" t="s">
+      <c r="K56" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="219"/>
+      <c r="A57" s="215"/>
       <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
@@ -27931,9 +27931,9 @@
       <c r="D57" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="224"/>
-      <c r="F57" s="239"/>
-      <c r="G57" s="219"/>
+      <c r="E57" s="225"/>
+      <c r="F57" s="242"/>
+      <c r="G57" s="215"/>
       <c r="H57" s="157" t="s">
         <v>206</v>
       </c>
@@ -27943,17 +27943,17 @@
       <c r="J57" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="219"/>
+      <c r="K57" s="215"/>
     </row>
     <row r="58" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="215" t="s">
+      <c r="A58" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="216"/>
-      <c r="C58" s="216"/>
-      <c r="D58" s="216"/>
-      <c r="E58" s="216"/>
-      <c r="F58" s="217"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="218"/>
       <c r="G58" s="189">
         <f>G44</f>
         <v>24697.52</v>
@@ -28213,14 +28213,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="215" t="s">
+      <c r="A66" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="217"/>
+      <c r="B66" s="217"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="218"/>
       <c r="G66" s="189">
         <f>SUM(G58:G65)</f>
         <v>29989.62</v>
@@ -28249,30 +28249,13 @@
     <sortCondition ref="B60:B65"/>
   </sortState>
   <mergeCells count="50">
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A52:B52"/>
@@ -28289,16 +28272,33 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
   </mergeCells>
   <pageMargins left="0.53" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -29288,34 +29288,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29331,19 +29331,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -29442,15 +29442,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="223" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -29469,7 +29469,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -29479,7 +29479,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="222"/>
+      <c r="E13" s="224"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -30691,34 +30691,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -30734,19 +30734,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30781,48 +30781,48 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="243"/>
+      <c r="B8" s="238"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="248" t="s">
+      <c r="D8" s="249" t="s">
         <v>645</v>
       </c>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
     </row>
     <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="243" t="s">
+      <c r="A9" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="243"/>
+      <c r="B9" s="238"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="248" t="s">
+      <c r="D9" s="249" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="248"/>
-      <c r="F9" s="248"/>
-      <c r="G9" s="248"/>
-      <c r="H9" s="248"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="247" t="s">
+      <c r="A10" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="247"/>
+      <c r="B10" s="240"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -30853,13 +30853,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -30878,7 +30878,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -41432,34 +41432,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -41475,19 +41475,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -41586,13 +41586,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -41611,7 +41611,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -44970,34 +44970,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -45013,19 +45013,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45124,13 +45124,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -45149,7 +45149,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -48988,34 +48988,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -49031,19 +49031,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -49142,13 +49142,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -49167,7 +49167,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -52433,21 +52433,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -52465,21 +52465,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -52589,56 +52589,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="249" t="s">
+      <c r="B10" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="251" t="s">
+      <c r="C10" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="253" t="s">
+      <c r="D10" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="251" t="s">
+      <c r="E10" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="251" t="s">
+      <c r="F10" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="251" t="s">
+      <c r="G10" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="251" t="s">
+      <c r="H10" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="255" t="s">
+      <c r="I10" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="251" t="s">
+      <c r="J10" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="251" t="s">
+      <c r="K10" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="251" t="s">
+      <c r="L10" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="257" t="s">
+      <c r="M10" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="258"/>
+      <c r="N10" s="256"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="250"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="254"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -52773,31 +52773,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="259"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="262"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
-      <c r="M18" s="263"/>
-      <c r="N18" s="264"/>
+      <c r="J18" s="260"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="261"/>
+      <c r="M18" s="261"/>
+      <c r="N18" s="262"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="271" t="s">
+      <c r="M20" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="271"/>
+      <c r="N20" s="250"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -52819,21 +52819,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="228"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="210"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -52851,21 +52851,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="228" t="s">
+      <c r="B25" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="228"/>
-      <c r="N25" s="228"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="210"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -52975,56 +52975,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="249" t="s">
+      <c r="B31" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="251" t="s">
+      <c r="C31" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="253" t="s">
+      <c r="D31" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="251" t="s">
+      <c r="E31" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="251" t="s">
+      <c r="F31" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="251" t="s">
+      <c r="G31" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="251" t="s">
+      <c r="H31" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="255" t="s">
+      <c r="I31" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="251" t="s">
+      <c r="J31" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="251" t="s">
+      <c r="K31" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="251" t="s">
+      <c r="L31" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="257" t="s">
+      <c r="M31" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="258"/>
+      <c r="N31" s="256"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="250"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="254"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="252"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="254"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="254"/>
+      <c r="K32" s="254"/>
+      <c r="L32" s="254"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -53118,31 +53118,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="267"/>
+      <c r="C38" s="268"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="268"/>
+      <c r="G38" s="268"/>
+      <c r="H38" s="269"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="268"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269"/>
-      <c r="N38" s="270"/>
+      <c r="J38" s="270"/>
+      <c r="K38" s="271"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="271"/>
+      <c r="N38" s="272"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="271" t="s">
+      <c r="M40" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="271"/>
+      <c r="N40" s="250"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -53164,21 +53164,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="228" t="s">
+      <c r="B43" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="228"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="228"/>
-      <c r="L43" s="228"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -53196,21 +53196,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="228" t="s">
+      <c r="B45" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="228"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="228"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="228"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="228"/>
-      <c r="L45" s="228"/>
-      <c r="M45" s="228"/>
-      <c r="N45" s="228"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="210"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -53320,56 +53320,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="249" t="s">
+      <c r="B51" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="251" t="s">
+      <c r="C51" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="253" t="s">
+      <c r="D51" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="251" t="s">
+      <c r="E51" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="251" t="s">
+      <c r="F51" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="251" t="s">
+      <c r="G51" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="251" t="s">
+      <c r="H51" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="255" t="s">
+      <c r="I51" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="251" t="s">
+      <c r="J51" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="251" t="s">
+      <c r="K51" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="251" t="s">
+      <c r="L51" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="257" t="s">
+      <c r="M51" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="258"/>
+      <c r="N51" s="256"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="250"/>
-      <c r="C52" s="252"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="252"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="252"/>
-      <c r="H52" s="252"/>
-      <c r="I52" s="256"/>
-      <c r="J52" s="252"/>
-      <c r="K52" s="252"/>
-      <c r="L52" s="252"/>
+      <c r="B52" s="264"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="254"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="254"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -53446,31 +53446,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="266"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
-      <c r="G57" s="266"/>
-      <c r="H57" s="267"/>
+      <c r="C57" s="268"/>
+      <c r="D57" s="268"/>
+      <c r="E57" s="268"/>
+      <c r="F57" s="268"/>
+      <c r="G57" s="268"/>
+      <c r="H57" s="269"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="268"/>
-      <c r="K57" s="269"/>
-      <c r="L57" s="269"/>
-      <c r="M57" s="269"/>
-      <c r="N57" s="270"/>
+      <c r="J57" s="270"/>
+      <c r="K57" s="271"/>
+      <c r="L57" s="271"/>
+      <c r="M57" s="271"/>
+      <c r="N57" s="272"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="271" t="s">
+      <c r="M59" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="271"/>
+      <c r="N59" s="250"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -53500,21 +53500,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="228" t="s">
+      <c r="B64" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="228"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="228"/>
-      <c r="F64" s="228"/>
-      <c r="G64" s="228"/>
-      <c r="H64" s="228"/>
-      <c r="I64" s="228"/>
-      <c r="J64" s="228"/>
-      <c r="K64" s="228"/>
-      <c r="L64" s="228"/>
-      <c r="M64" s="228"/>
-      <c r="N64" s="228"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="210"/>
+      <c r="K64" s="210"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="210"/>
+      <c r="N64" s="210"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -53532,21 +53532,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="228" t="s">
+      <c r="B66" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="228"/>
-      <c r="K66" s="228"/>
-      <c r="L66" s="228"/>
-      <c r="M66" s="228"/>
-      <c r="N66" s="228"/>
+      <c r="C66" s="210"/>
+      <c r="D66" s="210"/>
+      <c r="E66" s="210"/>
+      <c r="F66" s="210"/>
+      <c r="G66" s="210"/>
+      <c r="H66" s="210"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="210"/>
+      <c r="K66" s="210"/>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="210"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -53656,56 +53656,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="249" t="s">
+      <c r="B72" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="251" t="s">
+      <c r="C72" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="253" t="s">
+      <c r="D72" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="251" t="s">
+      <c r="E72" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="251" t="s">
+      <c r="F72" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="251" t="s">
+      <c r="G72" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="251" t="s">
+      <c r="H72" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="255" t="s">
+      <c r="I72" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="251" t="s">
+      <c r="J72" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="251" t="s">
+      <c r="K72" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="251" t="s">
+      <c r="L72" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="257" t="s">
+      <c r="M72" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="258"/>
+      <c r="N72" s="256"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="250"/>
-      <c r="C73" s="252"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="252"/>
-      <c r="F73" s="252"/>
-      <c r="G73" s="252"/>
-      <c r="H73" s="252"/>
-      <c r="I73" s="256"/>
-      <c r="J73" s="252"/>
-      <c r="K73" s="252"/>
-      <c r="L73" s="252"/>
+      <c r="B73" s="264"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="266"/>
+      <c r="E73" s="254"/>
+      <c r="F73" s="254"/>
+      <c r="G73" s="254"/>
+      <c r="H73" s="254"/>
+      <c r="I73" s="252"/>
+      <c r="J73" s="254"/>
+      <c r="K73" s="254"/>
+      <c r="L73" s="254"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -53765,31 +53765,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="259" t="s">
+      <c r="B77" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="260"/>
-      <c r="D77" s="260"/>
-      <c r="E77" s="260"/>
-      <c r="F77" s="260"/>
-      <c r="G77" s="260"/>
-      <c r="H77" s="261"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="258"/>
+      <c r="E77" s="258"/>
+      <c r="F77" s="258"/>
+      <c r="G77" s="258"/>
+      <c r="H77" s="259"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="262"/>
-      <c r="K77" s="263"/>
-      <c r="L77" s="263"/>
-      <c r="M77" s="263"/>
-      <c r="N77" s="264"/>
+      <c r="J77" s="260"/>
+      <c r="K77" s="261"/>
+      <c r="L77" s="261"/>
+      <c r="M77" s="261"/>
+      <c r="N77" s="262"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="271" t="s">
+      <c r="M79" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="271"/>
+      <c r="N79" s="250"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -53834,12 +53834,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -53856,52 +53896,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETA-2016.xlsx
@@ -3840,22 +3840,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,14 +3864,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3885,16 +3879,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3924,24 +3924,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3951,6 +3933,18 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3958,22 +3952,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3999,18 +4008,6 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4028,6 +4025,9 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4334,11 +4334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,42 +4356,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4411,23 +4411,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4550,38 +4550,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="223" t="s">
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="214" t="s">
+      <c r="G12" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="211" t="s">
+      <c r="H12" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="213"/>
-      <c r="O12" s="214" t="s">
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4591,9 +4591,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="215"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4615,9 +4615,9 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="215"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="219"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
         <v>41</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="113" t="s">
         <v>52</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="113" t="s">
         <v>53</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
         <v>54</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="113" t="s">
         <v>55</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>56</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>71</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>71</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>72</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>74</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>77</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>78</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>80</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>82</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>70</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
@@ -5185,15 +5185,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="216" t="s">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="217"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="218"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5226,42 +5226,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="219"/>
-      <c r="N35" s="219"/>
-      <c r="O35" s="219"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="220"/>
-      <c r="M36" s="220"/>
-      <c r="N36" s="220"/>
-      <c r="O36" s="220"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="211"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211"/>
+      <c r="O36" s="211"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5384,38 +5384,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="221" t="s">
+      <c r="A43" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="222" t="s">
+      <c r="B43" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="222"/>
-      <c r="D43" s="222"/>
-      <c r="E43" s="223" t="s">
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="223" t="s">
+      <c r="F43" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="214" t="s">
+      <c r="G43" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="211" t="s">
+      <c r="H43" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="212"/>
-      <c r="J43" s="212"/>
-      <c r="K43" s="212"/>
-      <c r="L43" s="212"/>
-      <c r="M43" s="212"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="214" t="s">
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
+      <c r="K43" s="226"/>
+      <c r="L43" s="226"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="215"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5425,9 +5425,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="224"/>
-      <c r="F44" s="225"/>
-      <c r="G44" s="215"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="219"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5449,17 +5449,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="215"/>
+      <c r="O44" s="219"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="226" t="s">
+      <c r="A45" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="228"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="214"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5914,14 +5914,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="216" t="s">
+      <c r="A66" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="217"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="217"/>
-      <c r="E66" s="217"/>
-      <c r="F66" s="218"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5954,42 +5954,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="219" t="s">
+      <c r="A69" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="219"/>
-      <c r="C69" s="219"/>
-      <c r="D69" s="219"/>
-      <c r="E69" s="219"/>
-      <c r="F69" s="219"/>
-      <c r="G69" s="219"/>
-      <c r="H69" s="219"/>
-      <c r="I69" s="219"/>
-      <c r="J69" s="219"/>
-      <c r="K69" s="219"/>
-      <c r="L69" s="219"/>
-      <c r="M69" s="219"/>
-      <c r="N69" s="219"/>
-      <c r="O69" s="219"/>
+      <c r="B69" s="210"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="210"/>
+      <c r="F69" s="210"/>
+      <c r="G69" s="210"/>
+      <c r="H69" s="210"/>
+      <c r="I69" s="210"/>
+      <c r="J69" s="210"/>
+      <c r="K69" s="210"/>
+      <c r="L69" s="210"/>
+      <c r="M69" s="210"/>
+      <c r="N69" s="210"/>
+      <c r="O69" s="210"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="220" t="s">
+      <c r="A70" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="220"/>
-      <c r="C70" s="220"/>
-      <c r="D70" s="220"/>
-      <c r="E70" s="220"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="220"/>
-      <c r="H70" s="220"/>
-      <c r="I70" s="220"/>
-      <c r="J70" s="220"/>
-      <c r="K70" s="220"/>
-      <c r="L70" s="220"/>
-      <c r="M70" s="220"/>
-      <c r="N70" s="220"/>
-      <c r="O70" s="220"/>
+      <c r="B70" s="211"/>
+      <c r="C70" s="211"/>
+      <c r="D70" s="211"/>
+      <c r="E70" s="211"/>
+      <c r="F70" s="211"/>
+      <c r="G70" s="211"/>
+      <c r="H70" s="211"/>
+      <c r="I70" s="211"/>
+      <c r="J70" s="211"/>
+      <c r="K70" s="211"/>
+      <c r="L70" s="211"/>
+      <c r="M70" s="211"/>
+      <c r="N70" s="211"/>
+      <c r="O70" s="211"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6112,38 +6112,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="221" t="s">
+      <c r="A77" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="222" t="s">
+      <c r="B77" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="222"/>
-      <c r="D77" s="222"/>
-      <c r="E77" s="223" t="s">
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="223" t="s">
+      <c r="F77" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="214" t="s">
+      <c r="G77" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="211" t="s">
+      <c r="H77" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="212"/>
-      <c r="N77" s="213"/>
-      <c r="O77" s="214" t="s">
+      <c r="I77" s="226"/>
+      <c r="J77" s="226"/>
+      <c r="K77" s="226"/>
+      <c r="L77" s="226"/>
+      <c r="M77" s="226"/>
+      <c r="N77" s="227"/>
+      <c r="O77" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="215"/>
+      <c r="A78" s="219"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6153,9 +6153,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="224"/>
-      <c r="F78" s="225"/>
-      <c r="G78" s="215"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="224"/>
+      <c r="G78" s="219"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6177,17 +6177,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="215"/>
+      <c r="O78" s="219"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="226" t="s">
+      <c r="A79" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="227"/>
-      <c r="C79" s="227"/>
-      <c r="D79" s="227"/>
-      <c r="E79" s="227"/>
-      <c r="F79" s="228"/>
+      <c r="B79" s="213"/>
+      <c r="C79" s="213"/>
+      <c r="D79" s="213"/>
+      <c r="E79" s="213"/>
+      <c r="F79" s="214"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6620,14 +6620,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="216" t="s">
+      <c r="A99" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="217"/>
-      <c r="C99" s="217"/>
-      <c r="D99" s="217"/>
-      <c r="E99" s="217"/>
-      <c r="F99" s="218"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="217"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6713,42 +6713,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="219" t="s">
+      <c r="A105" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="219"/>
-      <c r="C105" s="219"/>
-      <c r="D105" s="219"/>
-      <c r="E105" s="219"/>
-      <c r="F105" s="219"/>
-      <c r="G105" s="219"/>
-      <c r="H105" s="219"/>
-      <c r="I105" s="219"/>
-      <c r="J105" s="219"/>
-      <c r="K105" s="219"/>
-      <c r="L105" s="219"/>
-      <c r="M105" s="219"/>
-      <c r="N105" s="219"/>
-      <c r="O105" s="219"/>
+      <c r="B105" s="210"/>
+      <c r="C105" s="210"/>
+      <c r="D105" s="210"/>
+      <c r="E105" s="210"/>
+      <c r="F105" s="210"/>
+      <c r="G105" s="210"/>
+      <c r="H105" s="210"/>
+      <c r="I105" s="210"/>
+      <c r="J105" s="210"/>
+      <c r="K105" s="210"/>
+      <c r="L105" s="210"/>
+      <c r="M105" s="210"/>
+      <c r="N105" s="210"/>
+      <c r="O105" s="210"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="220" t="s">
+      <c r="A106" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="220"/>
-      <c r="C106" s="220"/>
-      <c r="D106" s="220"/>
-      <c r="E106" s="220"/>
-      <c r="F106" s="220"/>
-      <c r="G106" s="220"/>
-      <c r="H106" s="220"/>
-      <c r="I106" s="220"/>
-      <c r="J106" s="220"/>
-      <c r="K106" s="220"/>
-      <c r="L106" s="220"/>
-      <c r="M106" s="220"/>
-      <c r="N106" s="220"/>
-      <c r="O106" s="220"/>
+      <c r="B106" s="211"/>
+      <c r="C106" s="211"/>
+      <c r="D106" s="211"/>
+      <c r="E106" s="211"/>
+      <c r="F106" s="211"/>
+      <c r="G106" s="211"/>
+      <c r="H106" s="211"/>
+      <c r="I106" s="211"/>
+      <c r="J106" s="211"/>
+      <c r="K106" s="211"/>
+      <c r="L106" s="211"/>
+      <c r="M106" s="211"/>
+      <c r="N106" s="211"/>
+      <c r="O106" s="211"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6768,23 +6768,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="210" t="s">
+      <c r="A108" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="210"/>
-      <c r="C108" s="210"/>
-      <c r="D108" s="210"/>
-      <c r="E108" s="210"/>
-      <c r="F108" s="210"/>
-      <c r="G108" s="210"/>
-      <c r="H108" s="210"/>
-      <c r="I108" s="210"/>
-      <c r="J108" s="210"/>
-      <c r="K108" s="210"/>
-      <c r="L108" s="210"/>
-      <c r="M108" s="210"/>
-      <c r="N108" s="210"/>
-      <c r="O108" s="210"/>
+      <c r="B108" s="228"/>
+      <c r="C108" s="228"/>
+      <c r="D108" s="228"/>
+      <c r="E108" s="228"/>
+      <c r="F108" s="228"/>
+      <c r="G108" s="228"/>
+      <c r="H108" s="228"/>
+      <c r="I108" s="228"/>
+      <c r="J108" s="228"/>
+      <c r="K108" s="228"/>
+      <c r="L108" s="228"/>
+      <c r="M108" s="228"/>
+      <c r="N108" s="228"/>
+      <c r="O108" s="228"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6907,38 +6907,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="221" t="s">
+      <c r="A115" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="222" t="s">
+      <c r="B115" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="222"/>
-      <c r="D115" s="222"/>
-      <c r="E115" s="223" t="s">
+      <c r="C115" s="220"/>
+      <c r="D115" s="220"/>
+      <c r="E115" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="223" t="s">
+      <c r="F115" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="214" t="s">
+      <c r="G115" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="211" t="s">
+      <c r="H115" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="212"/>
-      <c r="J115" s="212"/>
-      <c r="K115" s="212"/>
-      <c r="L115" s="212"/>
-      <c r="M115" s="212"/>
-      <c r="N115" s="213"/>
-      <c r="O115" s="214" t="s">
+      <c r="I115" s="226"/>
+      <c r="J115" s="226"/>
+      <c r="K115" s="226"/>
+      <c r="L115" s="226"/>
+      <c r="M115" s="226"/>
+      <c r="N115" s="227"/>
+      <c r="O115" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="215"/>
+      <c r="A116" s="219"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6948,9 +6948,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="224"/>
-      <c r="F116" s="225"/>
-      <c r="G116" s="215"/>
+      <c r="E116" s="222"/>
+      <c r="F116" s="224"/>
+      <c r="G116" s="219"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6972,7 +6972,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="215"/>
+      <c r="O116" s="219"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7101,14 +7101,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="216" t="s">
+      <c r="A122" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="217"/>
-      <c r="C122" s="217"/>
-      <c r="D122" s="217"/>
-      <c r="E122" s="217"/>
-      <c r="F122" s="218"/>
+      <c r="B122" s="216"/>
+      <c r="C122" s="216"/>
+      <c r="D122" s="216"/>
+      <c r="E122" s="216"/>
+      <c r="F122" s="217"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7143,14 +7143,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B13:D32">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="O/S"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B13:D32"/>
   <mergeCells count="44">
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="H115:N115"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A45:F45"/>
@@ -7167,34 +7189,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="H115:N115"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7231,21 +7225,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7355,56 +7349,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="253" t="s">
+      <c r="C9" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="253" t="s">
+      <c r="E9" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="253" t="s">
+      <c r="F9" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="253" t="s">
+      <c r="G9" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="253" t="s">
+      <c r="H9" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="251" t="s">
+      <c r="I9" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="253" t="s">
+      <c r="J9" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="253" t="s">
+      <c r="K9" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="253" t="s">
+      <c r="L9" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="255" t="s">
+      <c r="M9" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="256"/>
+      <c r="N9" s="259"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="264"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="254"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7833,44 +7827,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="257" t="s">
+      <c r="B31" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="259"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="261"/>
+      <c r="G31" s="261"/>
+      <c r="H31" s="262"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="260"/>
-      <c r="K31" s="261"/>
-      <c r="L31" s="261"/>
-      <c r="M31" s="261"/>
-      <c r="N31" s="262"/>
+      <c r="J31" s="263"/>
+      <c r="K31" s="264"/>
+      <c r="L31" s="264"/>
+      <c r="M31" s="264"/>
+      <c r="N31" s="265"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="228"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="228"/>
+      <c r="N35" s="228"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7980,56 +7974,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="263" t="s">
+      <c r="B42" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="265" t="s">
+      <c r="D42" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="253" t="s">
+      <c r="E42" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="253" t="s">
+      <c r="F42" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="253" t="s">
+      <c r="G42" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="253" t="s">
+      <c r="H42" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="251" t="s">
+      <c r="I42" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="253" t="s">
+      <c r="J42" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="253" t="s">
+      <c r="K42" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="253" t="s">
+      <c r="L42" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="255" t="s">
+      <c r="M42" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="256"/>
+      <c r="N42" s="259"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="264"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="254"/>
-      <c r="F43" s="254"/>
-      <c r="G43" s="254"/>
-      <c r="H43" s="254"/>
-      <c r="I43" s="252"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="254"/>
-      <c r="L43" s="254"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="255"/>
+      <c r="E43" s="253"/>
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="257"/>
+      <c r="J43" s="253"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="253"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -8038,24 +8032,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="267" t="s">
+      <c r="B44" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="268"/>
-      <c r="D44" s="268"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="268"/>
-      <c r="G44" s="268"/>
-      <c r="H44" s="269"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="268"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="270"/>
-      <c r="K44" s="271"/>
-      <c r="L44" s="271"/>
-      <c r="M44" s="271"/>
-      <c r="N44" s="272"/>
+      <c r="J44" s="269"/>
+      <c r="K44" s="270"/>
+      <c r="L44" s="270"/>
+      <c r="M44" s="270"/>
+      <c r="N44" s="271"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8419,44 +8413,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="257" t="s">
+      <c r="B63" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="258"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="259"/>
+      <c r="C63" s="261"/>
+      <c r="D63" s="261"/>
+      <c r="E63" s="261"/>
+      <c r="F63" s="261"/>
+      <c r="G63" s="261"/>
+      <c r="H63" s="262"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="260"/>
-      <c r="K63" s="261"/>
-      <c r="L63" s="261"/>
-      <c r="M63" s="261"/>
-      <c r="N63" s="262"/>
+      <c r="J63" s="263"/>
+      <c r="K63" s="264"/>
+      <c r="L63" s="264"/>
+      <c r="M63" s="264"/>
+      <c r="N63" s="265"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="210"/>
-      <c r="D67" s="210"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="210"/>
-      <c r="G67" s="210"/>
-      <c r="H67" s="210"/>
-      <c r="I67" s="210"/>
-      <c r="J67" s="210"/>
-      <c r="K67" s="210"/>
-      <c r="L67" s="210"/>
-      <c r="M67" s="210"/>
-      <c r="N67" s="210"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="228"/>
+      <c r="M67" s="228"/>
+      <c r="N67" s="228"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8566,56 +8560,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="263" t="s">
+      <c r="B74" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="253" t="s">
+      <c r="C74" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="265" t="s">
+      <c r="D74" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="253" t="s">
+      <c r="E74" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="253" t="s">
+      <c r="F74" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="253" t="s">
+      <c r="G74" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="253" t="s">
+      <c r="H74" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="251" t="s">
+      <c r="I74" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="253" t="s">
+      <c r="J74" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="253" t="s">
+      <c r="K74" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="253" t="s">
+      <c r="L74" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="255" t="s">
+      <c r="M74" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="256"/>
+      <c r="N74" s="259"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="264"/>
-      <c r="C75" s="254"/>
-      <c r="D75" s="266"/>
-      <c r="E75" s="254"/>
-      <c r="F75" s="254"/>
-      <c r="G75" s="254"/>
-      <c r="H75" s="254"/>
-      <c r="I75" s="252"/>
-      <c r="J75" s="254"/>
-      <c r="K75" s="254"/>
-      <c r="L75" s="254"/>
+      <c r="B75" s="251"/>
+      <c r="C75" s="253"/>
+      <c r="D75" s="255"/>
+      <c r="E75" s="253"/>
+      <c r="F75" s="253"/>
+      <c r="G75" s="253"/>
+      <c r="H75" s="253"/>
+      <c r="I75" s="257"/>
+      <c r="J75" s="253"/>
+      <c r="K75" s="253"/>
+      <c r="L75" s="253"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8624,24 +8618,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="267" t="s">
+      <c r="B76" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="268"/>
-      <c r="D76" s="268"/>
-      <c r="E76" s="268"/>
-      <c r="F76" s="268"/>
-      <c r="G76" s="268"/>
-      <c r="H76" s="269"/>
+      <c r="C76" s="267"/>
+      <c r="D76" s="267"/>
+      <c r="E76" s="267"/>
+      <c r="F76" s="267"/>
+      <c r="G76" s="267"/>
+      <c r="H76" s="268"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="270"/>
-      <c r="K76" s="271"/>
-      <c r="L76" s="271"/>
-      <c r="M76" s="271"/>
-      <c r="N76" s="272"/>
+      <c r="J76" s="269"/>
+      <c r="K76" s="270"/>
+      <c r="L76" s="270"/>
+      <c r="M76" s="270"/>
+      <c r="N76" s="271"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -9084,44 +9078,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="257" t="s">
+      <c r="B97" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="258"/>
-      <c r="D97" s="258"/>
-      <c r="E97" s="258"/>
-      <c r="F97" s="258"/>
-      <c r="G97" s="258"/>
-      <c r="H97" s="259"/>
+      <c r="C97" s="261"/>
+      <c r="D97" s="261"/>
+      <c r="E97" s="261"/>
+      <c r="F97" s="261"/>
+      <c r="G97" s="261"/>
+      <c r="H97" s="262"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="260"/>
-      <c r="K97" s="261"/>
-      <c r="L97" s="261"/>
-      <c r="M97" s="261"/>
-      <c r="N97" s="262"/>
+      <c r="J97" s="263"/>
+      <c r="K97" s="264"/>
+      <c r="L97" s="264"/>
+      <c r="M97" s="264"/>
+      <c r="N97" s="265"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="210" t="s">
+      <c r="B101" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="210"/>
-      <c r="D101" s="210"/>
-      <c r="E101" s="210"/>
-      <c r="F101" s="210"/>
-      <c r="G101" s="210"/>
-      <c r="H101" s="210"/>
-      <c r="I101" s="210"/>
-      <c r="J101" s="210"/>
-      <c r="K101" s="210"/>
-      <c r="L101" s="210"/>
-      <c r="M101" s="210"/>
-      <c r="N101" s="210"/>
+      <c r="C101" s="228"/>
+      <c r="D101" s="228"/>
+      <c r="E101" s="228"/>
+      <c r="F101" s="228"/>
+      <c r="G101" s="228"/>
+      <c r="H101" s="228"/>
+      <c r="I101" s="228"/>
+      <c r="J101" s="228"/>
+      <c r="K101" s="228"/>
+      <c r="L101" s="228"/>
+      <c r="M101" s="228"/>
+      <c r="N101" s="228"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9231,56 +9225,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="263" t="s">
+      <c r="B108" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="253" t="s">
+      <c r="C108" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="265" t="s">
+      <c r="D108" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="253" t="s">
+      <c r="E108" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="253" t="s">
+      <c r="F108" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="253" t="s">
+      <c r="G108" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="253" t="s">
+      <c r="H108" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="251" t="s">
+      <c r="I108" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="253" t="s">
+      <c r="J108" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="253" t="s">
+      <c r="K108" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="253" t="s">
+      <c r="L108" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="255" t="s">
+      <c r="M108" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="256"/>
+      <c r="N108" s="259"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="264"/>
-      <c r="C109" s="254"/>
-      <c r="D109" s="266"/>
-      <c r="E109" s="254"/>
-      <c r="F109" s="254"/>
-      <c r="G109" s="254"/>
-      <c r="H109" s="254"/>
-      <c r="I109" s="252"/>
-      <c r="J109" s="254"/>
-      <c r="K109" s="254"/>
-      <c r="L109" s="254"/>
+      <c r="B109" s="251"/>
+      <c r="C109" s="253"/>
+      <c r="D109" s="255"/>
+      <c r="E109" s="253"/>
+      <c r="F109" s="253"/>
+      <c r="G109" s="253"/>
+      <c r="H109" s="253"/>
+      <c r="I109" s="257"/>
+      <c r="J109" s="253"/>
+      <c r="K109" s="253"/>
+      <c r="L109" s="253"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9289,24 +9283,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="267" t="s">
+      <c r="B110" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="268"/>
-      <c r="D110" s="268"/>
-      <c r="E110" s="268"/>
-      <c r="F110" s="268"/>
-      <c r="G110" s="268"/>
-      <c r="H110" s="269"/>
+      <c r="C110" s="267"/>
+      <c r="D110" s="267"/>
+      <c r="E110" s="267"/>
+      <c r="F110" s="267"/>
+      <c r="G110" s="267"/>
+      <c r="H110" s="268"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="270"/>
-      <c r="K110" s="271"/>
-      <c r="L110" s="271"/>
-      <c r="M110" s="271"/>
-      <c r="N110" s="272"/>
+      <c r="J110" s="269"/>
+      <c r="K110" s="270"/>
+      <c r="L110" s="270"/>
+      <c r="M110" s="270"/>
+      <c r="N110" s="271"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9676,44 +9670,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="257" t="s">
+      <c r="B130" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="258"/>
-      <c r="D130" s="258"/>
-      <c r="E130" s="258"/>
-      <c r="F130" s="258"/>
-      <c r="G130" s="258"/>
-      <c r="H130" s="259"/>
+      <c r="C130" s="261"/>
+      <c r="D130" s="261"/>
+      <c r="E130" s="261"/>
+      <c r="F130" s="261"/>
+      <c r="G130" s="261"/>
+      <c r="H130" s="262"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="260"/>
-      <c r="K130" s="261"/>
-      <c r="L130" s="261"/>
-      <c r="M130" s="261"/>
-      <c r="N130" s="262"/>
+      <c r="J130" s="263"/>
+      <c r="K130" s="264"/>
+      <c r="L130" s="264"/>
+      <c r="M130" s="264"/>
+      <c r="N130" s="265"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="210" t="s">
+      <c r="B134" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="210"/>
-      <c r="D134" s="210"/>
-      <c r="E134" s="210"/>
-      <c r="F134" s="210"/>
-      <c r="G134" s="210"/>
-      <c r="H134" s="210"/>
-      <c r="I134" s="210"/>
-      <c r="J134" s="210"/>
-      <c r="K134" s="210"/>
-      <c r="L134" s="210"/>
-      <c r="M134" s="210"/>
-      <c r="N134" s="210"/>
+      <c r="C134" s="228"/>
+      <c r="D134" s="228"/>
+      <c r="E134" s="228"/>
+      <c r="F134" s="228"/>
+      <c r="G134" s="228"/>
+      <c r="H134" s="228"/>
+      <c r="I134" s="228"/>
+      <c r="J134" s="228"/>
+      <c r="K134" s="228"/>
+      <c r="L134" s="228"/>
+      <c r="M134" s="228"/>
+      <c r="N134" s="228"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9823,56 +9817,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="263" t="s">
+      <c r="B141" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="253" t="s">
+      <c r="C141" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="265" t="s">
+      <c r="D141" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="253" t="s">
+      <c r="E141" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="253" t="s">
+      <c r="F141" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="253" t="s">
+      <c r="G141" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="253" t="s">
+      <c r="H141" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="251" t="s">
+      <c r="I141" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="253" t="s">
+      <c r="J141" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="253" t="s">
+      <c r="K141" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="253" t="s">
+      <c r="L141" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="255" t="s">
+      <c r="M141" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="256"/>
+      <c r="N141" s="259"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="264"/>
-      <c r="C142" s="254"/>
-      <c r="D142" s="266"/>
-      <c r="E142" s="254"/>
-      <c r="F142" s="254"/>
-      <c r="G142" s="254"/>
-      <c r="H142" s="254"/>
-      <c r="I142" s="252"/>
-      <c r="J142" s="254"/>
-      <c r="K142" s="254"/>
-      <c r="L142" s="254"/>
+      <c r="B142" s="251"/>
+      <c r="C142" s="253"/>
+      <c r="D142" s="255"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="257"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253"/>
+      <c r="L142" s="253"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9881,24 +9875,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="267" t="s">
+      <c r="B143" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="268"/>
-      <c r="D143" s="268"/>
-      <c r="E143" s="268"/>
-      <c r="F143" s="268"/>
-      <c r="G143" s="268"/>
-      <c r="H143" s="269"/>
+      <c r="C143" s="267"/>
+      <c r="D143" s="267"/>
+      <c r="E143" s="267"/>
+      <c r="F143" s="267"/>
+      <c r="G143" s="267"/>
+      <c r="H143" s="268"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="270"/>
-      <c r="K143" s="271"/>
-      <c r="L143" s="271"/>
-      <c r="M143" s="271"/>
-      <c r="N143" s="272"/>
+      <c r="J143" s="269"/>
+      <c r="K143" s="270"/>
+      <c r="L143" s="270"/>
+      <c r="M143" s="270"/>
+      <c r="N143" s="271"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10224,44 +10218,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="257" t="s">
+      <c r="B161" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="258"/>
-      <c r="D161" s="258"/>
-      <c r="E161" s="258"/>
-      <c r="F161" s="258"/>
-      <c r="G161" s="258"/>
-      <c r="H161" s="259"/>
+      <c r="C161" s="261"/>
+      <c r="D161" s="261"/>
+      <c r="E161" s="261"/>
+      <c r="F161" s="261"/>
+      <c r="G161" s="261"/>
+      <c r="H161" s="262"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="260"/>
-      <c r="K161" s="261"/>
-      <c r="L161" s="261"/>
-      <c r="M161" s="261"/>
-      <c r="N161" s="262"/>
+      <c r="J161" s="263"/>
+      <c r="K161" s="264"/>
+      <c r="L161" s="264"/>
+      <c r="M161" s="264"/>
+      <c r="N161" s="265"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="210" t="s">
+      <c r="B165" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="210"/>
-      <c r="D165" s="210"/>
-      <c r="E165" s="210"/>
-      <c r="F165" s="210"/>
-      <c r="G165" s="210"/>
-      <c r="H165" s="210"/>
-      <c r="I165" s="210"/>
-      <c r="J165" s="210"/>
-      <c r="K165" s="210"/>
-      <c r="L165" s="210"/>
-      <c r="M165" s="210"/>
-      <c r="N165" s="210"/>
+      <c r="C165" s="228"/>
+      <c r="D165" s="228"/>
+      <c r="E165" s="228"/>
+      <c r="F165" s="228"/>
+      <c r="G165" s="228"/>
+      <c r="H165" s="228"/>
+      <c r="I165" s="228"/>
+      <c r="J165" s="228"/>
+      <c r="K165" s="228"/>
+      <c r="L165" s="228"/>
+      <c r="M165" s="228"/>
+      <c r="N165" s="228"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10371,56 +10365,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="263" t="s">
+      <c r="B172" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="253" t="s">
+      <c r="C172" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="265" t="s">
+      <c r="D172" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="253" t="s">
+      <c r="E172" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="253" t="s">
+      <c r="F172" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="253" t="s">
+      <c r="G172" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="253" t="s">
+      <c r="H172" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="251" t="s">
+      <c r="I172" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="253" t="s">
+      <c r="J172" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="253" t="s">
+      <c r="K172" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="253" t="s">
+      <c r="L172" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="255" t="s">
+      <c r="M172" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="256"/>
+      <c r="N172" s="259"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="264"/>
-      <c r="C173" s="254"/>
-      <c r="D173" s="266"/>
-      <c r="E173" s="254"/>
-      <c r="F173" s="254"/>
-      <c r="G173" s="254"/>
-      <c r="H173" s="254"/>
-      <c r="I173" s="252"/>
-      <c r="J173" s="254"/>
-      <c r="K173" s="254"/>
-      <c r="L173" s="254"/>
+      <c r="B173" s="251"/>
+      <c r="C173" s="253"/>
+      <c r="D173" s="255"/>
+      <c r="E173" s="253"/>
+      <c r="F173" s="253"/>
+      <c r="G173" s="253"/>
+      <c r="H173" s="253"/>
+      <c r="I173" s="257"/>
+      <c r="J173" s="253"/>
+      <c r="K173" s="253"/>
+      <c r="L173" s="253"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10429,24 +10423,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="267" t="s">
+      <c r="B174" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="268"/>
-      <c r="D174" s="268"/>
-      <c r="E174" s="268"/>
-      <c r="F174" s="268"/>
-      <c r="G174" s="268"/>
-      <c r="H174" s="269"/>
+      <c r="C174" s="267"/>
+      <c r="D174" s="267"/>
+      <c r="E174" s="267"/>
+      <c r="F174" s="267"/>
+      <c r="G174" s="267"/>
+      <c r="H174" s="268"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="270"/>
-      <c r="K174" s="271"/>
-      <c r="L174" s="271"/>
-      <c r="M174" s="271"/>
-      <c r="N174" s="272"/>
+      <c r="J174" s="269"/>
+      <c r="K174" s="270"/>
+      <c r="L174" s="270"/>
+      <c r="M174" s="270"/>
+      <c r="N174" s="271"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10512,31 +10506,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="267" t="s">
+      <c r="B178" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="268"/>
-      <c r="D178" s="268"/>
-      <c r="E178" s="268"/>
-      <c r="F178" s="268"/>
-      <c r="G178" s="268"/>
-      <c r="H178" s="269"/>
+      <c r="C178" s="267"/>
+      <c r="D178" s="267"/>
+      <c r="E178" s="267"/>
+      <c r="F178" s="267"/>
+      <c r="G178" s="267"/>
+      <c r="H178" s="268"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="270"/>
-      <c r="K178" s="271"/>
-      <c r="L178" s="271"/>
-      <c r="M178" s="271"/>
-      <c r="N178" s="272"/>
+      <c r="J178" s="269"/>
+      <c r="K178" s="270"/>
+      <c r="L178" s="270"/>
+      <c r="M178" s="270"/>
+      <c r="N178" s="271"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="250" t="s">
+      <c r="M180" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="250"/>
+      <c r="N180" s="272"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10553,90 +10547,6 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10654,6 +10564,90 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -11653,46 +11647,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11714,25 +11708,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11867,13 +11861,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -11900,7 +11894,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26660,34 +26654,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26703,19 +26697,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26750,48 +26744,48 @@
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="238"/>
+      <c r="B8" s="241"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="239" t="s">
+      <c r="D8" s="242" t="s">
         <v>645</v>
       </c>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
     </row>
     <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="238"/>
+      <c r="B9" s="241"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="239" t="s">
+      <c r="D9" s="242" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="240"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -26822,32 +26816,32 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="241" t="s">
+      <c r="F12" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="214" t="s">
+      <c r="G12" s="223" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="237"/>
       <c r="I12" s="237"/>
       <c r="J12" s="237"/>
-      <c r="K12" s="214" t="s">
+      <c r="K12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26857,9 +26851,9 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="225"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="215"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="157" t="s">
         <v>206</v>
       </c>
@@ -26869,7 +26863,7 @@
       <c r="J13" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="243"/>
+      <c r="K13" s="248"/>
     </row>
     <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="122">
@@ -27135,14 +27129,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="244" t="s">
+      <c r="A21" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="245"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="246"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="239"/>
+      <c r="F21" s="240"/>
       <c r="G21" s="171">
         <f>SUM(G15:G20)</f>
         <v>15479.75</v>
@@ -27175,34 +27169,34 @@
       <c r="K22" s="188"/>
     </row>
     <row r="23" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
       <c r="D23" s="232"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="219"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
     </row>
     <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="220"/>
-      <c r="C24" s="220"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="233"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="220"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
     </row>
     <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -27218,19 +27212,19 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="228"/>
       <c r="D26" s="234"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
     </row>
     <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -27265,48 +27259,48 @@
       <c r="K28" s="201"/>
     </row>
     <row r="29" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="247" t="s">
+      <c r="A29" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="247"/>
+      <c r="B29" s="245"/>
       <c r="C29" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="239" t="s">
+      <c r="D29" s="242" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="239"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="242"/>
     </row>
     <row r="30" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="247" t="s">
+      <c r="A30" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="247"/>
+      <c r="B30" s="245"/>
       <c r="C30" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="242" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="239"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="242"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="248" t="s">
+      <c r="A31" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="248"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="205" t="s">
         <v>7</v>
       </c>
@@ -27337,32 +27331,32 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="221" t="s">
+      <c r="A33" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="220"/>
       <c r="D33" s="235"/>
-      <c r="E33" s="223" t="s">
+      <c r="E33" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="241" t="s">
+      <c r="F33" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="214" t="s">
+      <c r="G33" s="223" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="237"/>
       <c r="I33" s="237"/>
       <c r="J33" s="237"/>
-      <c r="K33" s="214" t="s">
+      <c r="K33" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="215"/>
+      <c r="A34" s="219"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -27372,9 +27366,9 @@
       <c r="D34" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="225"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="215"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="157" t="s">
         <v>206</v>
       </c>
@@ -27384,17 +27378,17 @@
       <c r="J34" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="215"/>
+      <c r="K34" s="219"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="216" t="s">
+      <c r="A35" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="217"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="218"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
       <c r="G35" s="189">
         <f>G21</f>
         <v>15479.75</v>
@@ -27694,14 +27688,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="216" t="s">
+      <c r="A44" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="217"/>
-      <c r="C44" s="217"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="218"/>
+      <c r="B44" s="216"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="217"/>
       <c r="G44" s="189">
         <f>SUM(G35:G43)</f>
         <v>24697.52</v>
@@ -27734,34 +27728,34 @@
       <c r="K45" s="198"/>
     </row>
     <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="219"/>
-      <c r="C46" s="219"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="210"/>
       <c r="D46" s="232"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="219"/>
-      <c r="G46" s="219"/>
-      <c r="H46" s="219"/>
-      <c r="I46" s="219"/>
-      <c r="J46" s="219"/>
-      <c r="K46" s="219"/>
+      <c r="E46" s="210"/>
+      <c r="F46" s="210"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="210"/>
+      <c r="I46" s="210"/>
+      <c r="J46" s="210"/>
+      <c r="K46" s="210"/>
     </row>
     <row r="47" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="220" t="s">
+      <c r="A47" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="220"/>
-      <c r="C47" s="220"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="233"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="220"/>
-      <c r="G47" s="220"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="220"/>
-      <c r="K47" s="220"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="211"/>
+      <c r="J47" s="211"/>
+      <c r="K47" s="211"/>
     </row>
     <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -27777,19 +27771,19 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="210" t="s">
+      <c r="A49" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="210"/>
-      <c r="C49" s="210"/>
+      <c r="B49" s="228"/>
+      <c r="C49" s="228"/>
       <c r="D49" s="234"/>
-      <c r="E49" s="210"/>
-      <c r="F49" s="210"/>
-      <c r="G49" s="210"/>
-      <c r="H49" s="210"/>
-      <c r="I49" s="210"/>
-      <c r="J49" s="210"/>
-      <c r="K49" s="210"/>
+      <c r="E49" s="228"/>
+      <c r="F49" s="228"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="228"/>
+      <c r="I49" s="228"/>
+      <c r="J49" s="228"/>
+      <c r="K49" s="228"/>
     </row>
     <row r="50" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -27824,48 +27818,48 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="238" t="s">
+      <c r="A52" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="238"/>
+      <c r="B52" s="241"/>
       <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="239" t="s">
+      <c r="D52" s="242" t="s">
         <v>645</v>
       </c>
-      <c r="E52" s="239"/>
-      <c r="F52" s="239"/>
-      <c r="G52" s="239"/>
-      <c r="H52" s="239"/>
-      <c r="I52" s="239"/>
-      <c r="J52" s="239"/>
-      <c r="K52" s="239"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="242"/>
+      <c r="H52" s="242"/>
+      <c r="I52" s="242"/>
+      <c r="J52" s="242"/>
+      <c r="K52" s="242"/>
     </row>
     <row r="53" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="238" t="s">
+      <c r="A53" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="238"/>
+      <c r="B53" s="241"/>
       <c r="C53" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="239" t="s">
+      <c r="D53" s="242" t="s">
         <v>646</v>
       </c>
-      <c r="E53" s="239"/>
-      <c r="F53" s="239"/>
-      <c r="G53" s="239"/>
-      <c r="H53" s="239"/>
-      <c r="I53" s="239"/>
-      <c r="J53" s="239"/>
-      <c r="K53" s="239"/>
+      <c r="E53" s="242"/>
+      <c r="F53" s="242"/>
+      <c r="G53" s="242"/>
+      <c r="H53" s="242"/>
+      <c r="I53" s="242"/>
+      <c r="J53" s="242"/>
+      <c r="K53" s="242"/>
     </row>
     <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="240" t="s">
+      <c r="A54" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="240"/>
+      <c r="B54" s="247"/>
       <c r="C54" s="181" t="s">
         <v>7</v>
       </c>
@@ -27896,32 +27890,32 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="222" t="s">
+      <c r="B56" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="222"/>
+      <c r="C56" s="220"/>
       <c r="D56" s="235"/>
-      <c r="E56" s="223" t="s">
+      <c r="E56" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="241" t="s">
+      <c r="F56" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="214" t="s">
+      <c r="G56" s="223" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="237"/>
       <c r="I56" s="237"/>
       <c r="J56" s="237"/>
-      <c r="K56" s="214" t="s">
+      <c r="K56" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="215"/>
+      <c r="A57" s="219"/>
       <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
@@ -27931,9 +27925,9 @@
       <c r="D57" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="225"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="215"/>
+      <c r="E57" s="224"/>
+      <c r="F57" s="244"/>
+      <c r="G57" s="219"/>
       <c r="H57" s="157" t="s">
         <v>206</v>
       </c>
@@ -27943,17 +27937,17 @@
       <c r="J57" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="215"/>
+      <c r="K57" s="219"/>
     </row>
     <row r="58" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="216" t="s">
+      <c r="A58" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="217"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="218"/>
+      <c r="B58" s="216"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="216"/>
+      <c r="F58" s="217"/>
       <c r="G58" s="189">
         <f>G44</f>
         <v>24697.52</v>
@@ -28213,14 +28207,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="216" t="s">
+      <c r="A66" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="217"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="217"/>
-      <c r="E66" s="217"/>
-      <c r="F66" s="218"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="189">
         <f>SUM(G58:G65)</f>
         <v>29989.62</v>
@@ -28249,13 +28243,33 @@
     <sortCondition ref="B60:B65"/>
   </sortState>
   <mergeCells count="50">
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A52:B52"/>
@@ -28272,33 +28286,13 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.53" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -29288,34 +29282,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29331,19 +29325,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -29442,15 +29436,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -29469,7 +29463,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -29479,7 +29473,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="224"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -30691,34 +30685,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -30734,19 +30728,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30781,10 +30775,10 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="238"/>
+      <c r="B8" s="241"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -30800,10 +30794,10 @@
       <c r="K8" s="249"/>
     </row>
     <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="238"/>
+      <c r="B9" s="241"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
@@ -30819,10 +30813,10 @@
       <c r="K9" s="249"/>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="240"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -30853,13 +30847,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -30878,7 +30872,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -41432,34 +41426,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -41475,19 +41469,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -41586,13 +41580,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -41611,7 +41605,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -44970,34 +44964,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -45013,19 +45007,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45124,13 +45118,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -45149,7 +45143,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -48988,34 +48982,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -49031,19 +49025,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -49142,13 +49136,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -49167,7 +49161,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -52433,21 +52427,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -52465,21 +52459,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -52589,56 +52583,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="263" t="s">
+      <c r="B10" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="265" t="s">
+      <c r="D10" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="253" t="s">
+      <c r="E10" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="253" t="s">
+      <c r="F10" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="253" t="s">
+      <c r="G10" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="253" t="s">
+      <c r="H10" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="251" t="s">
+      <c r="I10" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="253" t="s">
+      <c r="J10" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="253" t="s">
+      <c r="K10" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="253" t="s">
+      <c r="L10" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="255" t="s">
+      <c r="M10" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="256"/>
+      <c r="N10" s="259"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="264"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="254"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -52773,31 +52767,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="257" t="s">
+      <c r="B18" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="258"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="260"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="261"/>
-      <c r="M18" s="261"/>
-      <c r="N18" s="262"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="264"/>
+      <c r="L18" s="264"/>
+      <c r="M18" s="264"/>
+      <c r="N18" s="265"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="250" t="s">
+      <c r="M20" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="250"/>
+      <c r="N20" s="272"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -52819,21 +52813,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="228"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -52851,21 +52845,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="228"/>
+      <c r="N25" s="228"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -52975,56 +52969,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="253" t="s">
+      <c r="C31" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="265" t="s">
+      <c r="D31" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="253" t="s">
+      <c r="E31" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="253" t="s">
+      <c r="F31" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="253" t="s">
+      <c r="G31" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="253" t="s">
+      <c r="H31" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="251" t="s">
+      <c r="I31" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="253" t="s">
+      <c r="J31" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="253" t="s">
+      <c r="K31" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="253" t="s">
+      <c r="L31" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="255" t="s">
+      <c r="M31" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="256"/>
+      <c r="N31" s="259"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="264"/>
-      <c r="C32" s="254"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="254"/>
-      <c r="K32" s="254"/>
-      <c r="L32" s="254"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="255"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="257"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="253"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -53118,31 +53112,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="267" t="s">
+      <c r="B38" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="268"/>
-      <c r="G38" s="268"/>
-      <c r="H38" s="269"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="268"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="270"/>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="272"/>
+      <c r="J38" s="269"/>
+      <c r="K38" s="270"/>
+      <c r="L38" s="270"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="271"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="250" t="s">
+      <c r="M40" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="250"/>
+      <c r="N40" s="272"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -53164,21 +53158,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="210" t="s">
+      <c r="B43" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="210"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="210"/>
-      <c r="F43" s="210"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="210"/>
-      <c r="I43" s="210"/>
-      <c r="J43" s="210"/>
-      <c r="K43" s="210"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="210"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="228"/>
+      <c r="L43" s="228"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="228"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -53196,21 +53190,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="210" t="s">
+      <c r="B45" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="210"/>
-      <c r="K45" s="210"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="210"/>
+      <c r="C45" s="228"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="228"/>
+      <c r="J45" s="228"/>
+      <c r="K45" s="228"/>
+      <c r="L45" s="228"/>
+      <c r="M45" s="228"/>
+      <c r="N45" s="228"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -53320,56 +53314,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="263" t="s">
+      <c r="B51" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="253" t="s">
+      <c r="C51" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="265" t="s">
+      <c r="D51" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="253" t="s">
+      <c r="E51" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="253" t="s">
+      <c r="F51" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="253" t="s">
+      <c r="G51" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="253" t="s">
+      <c r="H51" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="251" t="s">
+      <c r="I51" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="253" t="s">
+      <c r="J51" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="253" t="s">
+      <c r="K51" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="253" t="s">
+      <c r="L51" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="255" t="s">
+      <c r="M51" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="256"/>
+      <c r="N51" s="259"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="264"/>
-      <c r="C52" s="254"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="254"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="254"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="252"/>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="254"/>
+      <c r="B52" s="251"/>
+      <c r="C52" s="253"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="253"/>
+      <c r="F52" s="253"/>
+      <c r="G52" s="253"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="257"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="253"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -53446,31 +53440,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="267" t="s">
+      <c r="B57" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="268"/>
-      <c r="D57" s="268"/>
-      <c r="E57" s="268"/>
-      <c r="F57" s="268"/>
-      <c r="G57" s="268"/>
-      <c r="H57" s="269"/>
+      <c r="C57" s="267"/>
+      <c r="D57" s="267"/>
+      <c r="E57" s="267"/>
+      <c r="F57" s="267"/>
+      <c r="G57" s="267"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="270"/>
-      <c r="K57" s="271"/>
-      <c r="L57" s="271"/>
-      <c r="M57" s="271"/>
-      <c r="N57" s="272"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="270"/>
+      <c r="L57" s="270"/>
+      <c r="M57" s="270"/>
+      <c r="N57" s="271"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="250" t="s">
+      <c r="M59" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="250"/>
+      <c r="N59" s="272"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -53500,21 +53494,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="210" t="s">
+      <c r="B64" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="210"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="210"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="210"/>
-      <c r="K64" s="210"/>
-      <c r="L64" s="210"/>
-      <c r="M64" s="210"/>
-      <c r="N64" s="210"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="228"/>
+      <c r="F64" s="228"/>
+      <c r="G64" s="228"/>
+      <c r="H64" s="228"/>
+      <c r="I64" s="228"/>
+      <c r="J64" s="228"/>
+      <c r="K64" s="228"/>
+      <c r="L64" s="228"/>
+      <c r="M64" s="228"/>
+      <c r="N64" s="228"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -53532,21 +53526,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="210" t="s">
+      <c r="B66" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="210"/>
-      <c r="D66" s="210"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="210"/>
-      <c r="G66" s="210"/>
-      <c r="H66" s="210"/>
-      <c r="I66" s="210"/>
-      <c r="J66" s="210"/>
-      <c r="K66" s="210"/>
-      <c r="L66" s="210"/>
-      <c r="M66" s="210"/>
-      <c r="N66" s="210"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="228"/>
+      <c r="M66" s="228"/>
+      <c r="N66" s="228"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -53656,56 +53650,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="263" t="s">
+      <c r="B72" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="253" t="s">
+      <c r="C72" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="265" t="s">
+      <c r="D72" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="253" t="s">
+      <c r="E72" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="253" t="s">
+      <c r="F72" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="253" t="s">
+      <c r="G72" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="253" t="s">
+      <c r="H72" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="251" t="s">
+      <c r="I72" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="253" t="s">
+      <c r="J72" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="253" t="s">
+      <c r="K72" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="253" t="s">
+      <c r="L72" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="255" t="s">
+      <c r="M72" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="256"/>
+      <c r="N72" s="259"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="264"/>
-      <c r="C73" s="254"/>
-      <c r="D73" s="266"/>
-      <c r="E73" s="254"/>
-      <c r="F73" s="254"/>
-      <c r="G73" s="254"/>
-      <c r="H73" s="254"/>
-      <c r="I73" s="252"/>
-      <c r="J73" s="254"/>
-      <c r="K73" s="254"/>
-      <c r="L73" s="254"/>
+      <c r="B73" s="251"/>
+      <c r="C73" s="253"/>
+      <c r="D73" s="255"/>
+      <c r="E73" s="253"/>
+      <c r="F73" s="253"/>
+      <c r="G73" s="253"/>
+      <c r="H73" s="253"/>
+      <c r="I73" s="257"/>
+      <c r="J73" s="253"/>
+      <c r="K73" s="253"/>
+      <c r="L73" s="253"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -53765,31 +53759,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="257" t="s">
+      <c r="B77" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="258"/>
-      <c r="D77" s="258"/>
-      <c r="E77" s="258"/>
-      <c r="F77" s="258"/>
-      <c r="G77" s="258"/>
-      <c r="H77" s="259"/>
+      <c r="C77" s="261"/>
+      <c r="D77" s="261"/>
+      <c r="E77" s="261"/>
+      <c r="F77" s="261"/>
+      <c r="G77" s="261"/>
+      <c r="H77" s="262"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="260"/>
-      <c r="K77" s="261"/>
-      <c r="L77" s="261"/>
-      <c r="M77" s="261"/>
-      <c r="N77" s="262"/>
+      <c r="J77" s="263"/>
+      <c r="K77" s="264"/>
+      <c r="L77" s="264"/>
+      <c r="M77" s="264"/>
+      <c r="N77" s="265"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="250" t="s">
+      <c r="M79" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="250"/>
+      <c r="N79" s="272"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -53834,20 +53828,44 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B38:H38"/>
@@ -53864,44 +53882,20 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
